--- a/demo/transfer/test_data/transfer_other_one.xlsx
+++ b/demo/transfer/test_data/transfer_other_one.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>转出主账号</t>
   </si>
@@ -27,16 +27,31 @@
   <si>
     <t>转入交易账号</t>
   </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>转账金额</t>
+  </si>
+  <si>
+    <t>lemon.lin@newtype.io</t>
+  </si>
+  <si>
+    <t>Tl123456</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,6 +62,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -55,7 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,7 +114,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,24 +174,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,59 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,25 +215,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,157 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +433,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -434,21 +473,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,15 +506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,141 +526,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,22 +985,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="D13 B10"/>
+      <selection activeCell="C11" sqref="C10 C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,13 +1016,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>1200003759</v>
+        <v>1000003759</v>
       </c>
       <c r="B2" s="1">
-        <v>67200985</v>
+        <v>67200977</v>
       </c>
       <c r="C2" s="1">
         <v>1000004233</v>
@@ -1009,13 +1039,22 @@
       <c r="D2" s="1">
         <v>67201154</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1000003759</v>
       </c>
       <c r="B3" s="1">
-        <v>67200977</v>
+        <v>63200106</v>
       </c>
       <c r="C3" s="1">
         <v>1000004233</v>
@@ -1023,8 +1062,45 @@
       <c r="D3" s="1">
         <v>67201154</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>1000003759</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67200977</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000004233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>632000449</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="lemon.lin@newtype.io"/>
+    <hyperlink ref="E3" r:id="rId1" display="lemon.lin@newtype.io"/>
+    <hyperlink ref="E4" r:id="rId1" display="lemon.lin@newtype.io"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/demo/transfer/test_data/transfer_other_one.xlsx
+++ b/demo/transfer/test_data/transfer_other_one.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>转出主账号</t>
   </si>
@@ -49,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,28 +71,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,15 +146,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,85 +203,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,19 +215,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,79 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,79 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +413,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,45 +433,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -506,6 +471,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,16 +526,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,115 +544,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C10 C11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -1031,7 +1031,7 @@
         <v>1000003759</v>
       </c>
       <c r="B2" s="1">
-        <v>67200977</v>
+        <v>632000085</v>
       </c>
       <c r="C2" s="1">
         <v>1000004233</v>
@@ -1054,7 +1054,7 @@
         <v>1000003759</v>
       </c>
       <c r="B3" s="1">
-        <v>63200106</v>
+        <v>67200977</v>
       </c>
       <c r="C3" s="1">
         <v>1000004233</v>
@@ -1080,10 +1080,10 @@
         <v>67200977</v>
       </c>
       <c r="C4" s="1">
-        <v>1000004233</v>
+        <v>1200007925</v>
       </c>
       <c r="D4" s="1">
-        <v>632000449</v>
+        <v>672003505</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1092,6 +1092,29 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1200007925</v>
+      </c>
+      <c r="B5" s="1">
+        <v>672003505</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1200007925</v>
+      </c>
+      <c r="D5" s="1">
+        <v>672003505</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1100,6 +1123,7 @@
     <hyperlink ref="E2" r:id="rId1" display="lemon.lin@newtype.io"/>
     <hyperlink ref="E3" r:id="rId1" display="lemon.lin@newtype.io"/>
     <hyperlink ref="E4" r:id="rId1" display="lemon.lin@newtype.io"/>
+    <hyperlink ref="E5" r:id="rId1" display="lemon.lin@newtype.io"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
